--- a/topicos.xlsx
+++ b/topicos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo.figueiro\crawler_focado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74933710-0965-469C-9B76-C5BDBBF74C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882A112F-DB73-46F4-B9BC-34ACCE0E3D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Futebol</t>
   </si>
@@ -34,16 +34,31 @@
     <t>Flamengo</t>
   </si>
   <si>
-    <t>Política</t>
-  </si>
-  <si>
-    <t>Bolsonaro</t>
-  </si>
-  <si>
-    <t>Dilma</t>
-  </si>
-  <si>
-    <t>Lula</t>
+    <t>Corinthians</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>Galaxy</t>
+  </si>
+  <si>
+    <t>Redmi</t>
+  </si>
+  <si>
+    <t>Xiaomi</t>
+  </si>
+  <si>
+    <t>Motorola</t>
   </si>
 </sst>
 </file>
@@ -429,17 +444,21 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -447,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -455,7 +474,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -463,8 +482,35 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E9" s="3"/>
